--- a/实施周数据-李登林组/12月/51周/实施周数据-李登林组-李星.xlsx
+++ b/实施周数据-李登林组/12月/51周/实施周数据-李登林组-李星.xlsx
@@ -477,12 +477,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;?_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -577,13 +577,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -592,21 +586,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -624,49 +604,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -694,9 +631,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -723,17 +718,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -787,13 +787,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,13 +859,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,7 +877,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,127 +949,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,9 +1148,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1179,6 +1181,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1190,6 +1201,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1208,199 +1243,164 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1439,9 +1439,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1846,269 +1843,269 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="10.125" style="17" customWidth="1"/>
-    <col min="3" max="6" width="12.125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="14.625" style="17" customWidth="1"/>
-    <col min="8" max="11" width="12.125" style="17" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="17"/>
+    <col min="1" max="2" width="10.125" style="16" customWidth="1"/>
+    <col min="3" max="6" width="12.125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="14.625" style="16" customWidth="1"/>
+    <col min="8" max="11" width="12.125" style="16" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.75" customHeight="1" spans="1:11">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" ht="24" customHeight="1" spans="1:11">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="21" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="41"/>
-    </row>
-    <row r="3" s="16" customFormat="1" ht="38.25" customHeight="1" spans="1:11">
-      <c r="A3" s="23" t="s">
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="40"/>
+    </row>
+    <row r="3" s="15" customFormat="1" ht="38.25" customHeight="1" spans="1:11">
+      <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="42" t="s">
+      <c r="K3" s="41" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="16" customFormat="1" ht="26.25" customHeight="1" spans="1:14">
-      <c r="A4" s="25" t="s">
+    <row r="4" s="15" customFormat="1" ht="26.25" customHeight="1" spans="1:14">
+      <c r="A4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25">
         <v>0</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="25">
         <v>0</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="25">
         <v>0</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26">
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25">
         <v>0</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="25">
         <v>0</v>
       </c>
-      <c r="K4" s="43">
+      <c r="K4" s="42">
         <v>0</v>
       </c>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
     </row>
     <row r="5" ht="24" customHeight="1" spans="1:7">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="34" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:7">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
     </row>
     <row r="9" ht="14.25" spans="1:7">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
     </row>
     <row r="11" ht="14.25" spans="1:7">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
     </row>
     <row r="13" ht="14.25" spans="1:7">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
     </row>
     <row r="15" ht="14.25" spans="1:7">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
     </row>
     <row r="17" ht="14.25" spans="1:7">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -2144,7 +2141,7 @@
   <dimension ref="A1:Q1037"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2603,7 +2600,7 @@
         <v>51</v>
       </c>
       <c r="C10" s="12">
-        <v>43072</v>
+        <v>43089</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>31</v>
@@ -2656,7 +2653,7 @@
         <v>51</v>
       </c>
       <c r="C11" s="12">
-        <v>43073</v>
+        <v>43089</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>31</v>
@@ -2709,7 +2706,7 @@
         <v>51</v>
       </c>
       <c r="C12" s="12">
-        <v>43074</v>
+        <v>43089</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>31</v>
@@ -2762,7 +2759,7 @@
         <v>51</v>
       </c>
       <c r="C13" s="12">
-        <v>43075</v>
+        <v>43089</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>31</v>
@@ -2815,7 +2812,7 @@
         <v>51</v>
       </c>
       <c r="C14" s="12">
-        <v>43076</v>
+        <v>43089</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>31</v>
@@ -2868,7 +2865,7 @@
         <v>51</v>
       </c>
       <c r="C15" s="12">
-        <v>43077</v>
+        <v>43089</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>31</v>
@@ -2921,7 +2918,7 @@
         <v>51</v>
       </c>
       <c r="C16" s="12">
-        <v>43078</v>
+        <v>43089</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>31</v>
@@ -2974,7 +2971,7 @@
         <v>51</v>
       </c>
       <c r="C17" s="12">
-        <v>43079</v>
+        <v>43089</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>31</v>
@@ -3027,7 +3024,7 @@
         <v>51</v>
       </c>
       <c r="C18" s="12">
-        <v>43080</v>
+        <v>43089</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>31</v>
@@ -3080,7 +3077,7 @@
         <v>51</v>
       </c>
       <c r="C19" s="12">
-        <v>43081</v>
+        <v>43089</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>31</v>
@@ -3133,7 +3130,7 @@
         <v>51</v>
       </c>
       <c r="C20" s="12">
-        <v>43082</v>
+        <v>43089</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>31</v>
@@ -3186,7 +3183,7 @@
         <v>51</v>
       </c>
       <c r="C21" s="12">
-        <v>43083</v>
+        <v>43089</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>31</v>
@@ -3239,7 +3236,7 @@
         <v>51</v>
       </c>
       <c r="C22" s="12">
-        <v>43084</v>
+        <v>43089</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>31</v>
@@ -3444,16 +3441,16 @@
       </c>
     </row>
     <row r="26" spans="16:17">
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
     </row>
     <row r="27" spans="16:17">
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
     </row>
     <row r="28" spans="16:17">
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="2:17">
       <c r="B29" s="13"/>
